--- a/me/1.es6/5.Enhanced.xlsx
+++ b/me/1.es6/5.Enhanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\1.es6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF27E1FD-3649-4FFB-A383-0CC810DB7393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B9025-CABC-4134-8988-B67A9A64FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <t>構成</t>
   </si>
@@ -631,19 +631,18 @@
   <si>
     <t>Computed Property: Tên các thuộc tính có thể thay đổi được</t>
   </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,14 +765,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1620,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="N226" sqref="N226"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1772,12 @@
         <v>21</v>
       </c>
       <c r="G24" s="5"/>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
@@ -1783,6 +1788,12 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="10"/>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
